--- a/scrap_data.xlsx
+++ b/scrap_data.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="0" windowWidth="11820" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Disease</t>
   </si>
@@ -55,16 +56,54 @@
   </si>
   <si>
     <t>Problem</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>Ebola</t>
+  </si>
+  <si>
+    <t>Quasi-Identifier</t>
+  </si>
+  <si>
+    <t>f(age &lt; 18) = .8
+f(age) = .5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,17 +125,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -181,6 +267,125 @@
         <a:xfrm>
           <a:off x="1689100" y="1524000"/>
           <a:ext cx="6096000" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="table"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825501" y="5334000"/>
+          <a:ext cx="8229600" cy="741680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>131236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>110916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="table"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="6989236"/>
+          <a:ext cx="8229600" cy="741680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>17309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>75729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="table"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="8399309"/>
+          <a:ext cx="3048000" cy="1010920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -516,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -620,4 +825,85 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>